--- a/biology/Histoire de la zoologie et de la botanique/George_Perry/George_Perry.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Perry/George_Perry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Perry, né en 1771, est un naturaliste et malacologue anglais.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On ignore à peu près tout de la vie de George Perry, si ce n'est qu'il est l'auteur de deux ouvrages d'histoire naturelle. Il a dû vivre à Londres ou à proximité de cette ville. La seule trace que l’on a de lui est l’apparition de son nom dans la liste des membres de la Palaeontographical Society, fondée en 1847.
 Le premier s'intitule Arcana ; or the museum of natural history, une publication mensuelle parue de janvier 1810 à septembre 1811 et qui traite des oiseaux, des mammifères, des reptiles, des insectes et d'autres animaux. Il est l’auteur de nombreuses planches de cet ouvrage et la gravure est confiée à T.L. Busby.
 En 1811, il fait paraître son second ouvrage Conchology, or the natural history of shells : containing a new arrangement of the genera and species, illustrated by coloured engravings executed from the natural specimens, and including the latest discoveries (qui comporte soixante-et-une planches coloriées à la main). Il s'agit d'un travail très important sur la taxinomie des mollusques car il y décrit certaines espèces pour la première fois. Outre une introduction de quatre pages et un index final, le texte se résume à un texte placé en face de chaque planche décrivant les coquillages qui y figurent.
 La qualité des illustrations de deux ouvrages est très variable mais globalement meilleure que celle de la plupart des ouvrages de son époque. Comme il était d’usage courant, Perry a copié les illustrations d’autres auteurs (comme Friedrich Wilhelm Martini (1729-1778), Johann Hieronymus Chemnitz (1730-1800), Franz Michael Regenfuss (1713-1780) pour les coquillages).
 L’ouvrage n’est pas accueilli favorablement par tous les naturalistes puisque Gérard Paul Deshayes (1795-1875) écrira de lui :
-« Cet ouvrage, d’un grand luxe, offre des figures gravées et coloriés faites pour plaire aux yeux des personnes peu versées dans science[Quoi ?], et non à ceux des vrais naturalistes, car la plupart n’ont rien d’exact dans la forme et la couleur ; quant au texte, on y remarque des erreurs nombreuses[1]... »
+« Cet ouvrage, d’un grand luxe, offre des figures gravées et coloriés faites pour plaire aux yeux des personnes peu versées dans science[Quoi ?], et non à ceux des vrais naturalistes, car la plupart n’ont rien d’exact dans la forme et la couleur ; quant au texte, on y remarque des erreurs nombreuses... »
 La rareté de l’ouvrage explique le prix qu’il peut atteindre dans des ventes publiques (entre 8 500 et 18 000 dollars).
 </t>
         </is>
@@ -548,7 +562,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Cité par Petit (2003).
@@ -580,7 +596,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Richard E. Petit (2003). George Perry’s molluscan taxa and notes on the editions of his Conchology of 1811. Zootaxa, 377 : 72 p.</t>
         </is>
